--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3253.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3253.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.863771142150282</v>
+        <v>0.8189005255699158</v>
       </c>
       <c r="B1">
-        <v>1.94451649070672</v>
+        <v>3.047157049179077</v>
       </c>
       <c r="C1">
-        <v>2.035972103052654</v>
+        <v>2.597966909408569</v>
       </c>
       <c r="D1">
-        <v>2.773736687891896</v>
+        <v>2.262613296508789</v>
       </c>
       <c r="E1">
-        <v>3.204917037931115</v>
+        <v>1.916884779930115</v>
       </c>
     </row>
   </sheetData>
